--- a/output/fRAT_new_check_3_solution_True.xlsx
+++ b/output/fRAT_new_check_3_solution_True.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rejna\Work_only_here\Miscellaneous\rakshitha\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E5148F-550F-4F3A-8717-B54C45FED99A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB080FB-B7E1-448B-BC8D-62339E02E004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,13 +657,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
